--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244A069F-2AE3-E64D-931E-28A1BD4BFF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF3435-FA01-0842-A0BB-C9648E37DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="4480" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
     <sheet name="2025 Schedule" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$44</definedName>
     <definedName name="CIQWBGuid" hidden="1">"50be515a-d852-4fa0-a759-690b27d38276"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.49.2423.4439"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
@@ -50,7 +50,7 @@
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2025 Schedule'!$A$1:$V$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2025 Schedule'!$A$1:$W$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
   <si>
     <t>Team</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Saturday, July 12</t>
   </si>
   <si>
-    <t>Friday, July 18</t>
-  </si>
-  <si>
     <t>Sunday, July 13</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Sunday, August 31 - CHAMPIONSHIP GAME</t>
   </si>
   <si>
-    <t>SVFD vs. FHFD</t>
-  </si>
-  <si>
     <t>Maintenance vs. Lifeguards</t>
   </si>
   <si>
@@ -274,11 +268,8 @@
     <t>Best seed @ #2</t>
   </si>
   <si>
-    <t>WSCSS: #5</t>
-  </si>
-  <si>
-    <r>
-      <t>Outsiders @ Riptide (</t>
+    <r>
+      <t>Outsiders @ Dragons (</t>
     </r>
     <r>
       <rPr>
@@ -289,6 +280,108 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Bulkheads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Clippers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dogfish @ Fringe (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Excitables</t>
     </r>
     <r>
@@ -304,7 +397,7 @@
   </si>
   <si>
     <r>
-      <t>Dogfish @ Bulkheads (</t>
+      <t>Dragons @ Excitables (</t>
     </r>
     <r>
       <rPr>
@@ -315,6 +408,214 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Bulkheads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Fringe (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riptide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fringe @ Clippers (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clippers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Fringe</t>
     </r>
     <r>
@@ -330,7 +631,7 @@
   </si>
   <si>
     <r>
-      <t>Clippers @ Dragons (</t>
+      <t>Fringe @ Dragons (</t>
     </r>
     <r>
       <rPr>
@@ -341,7 +642,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Riptide</t>
+      <t>Dogfish</t>
     </r>
     <r>
       <rPr>
@@ -356,7 +657,7 @@
   </si>
   <si>
     <r>
-      <t>Fringe @ Excitables (</t>
+      <t>Clippers @ Riptide (</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +681,7 @@
   </si>
   <si>
     <r>
-      <t>Outsiders @ Dragons (</t>
+      <t>Excitables @ Bulkheads (</t>
     </r>
     <r>
       <rPr>
@@ -391,7 +692,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bulkheads</t>
+      <t>Dragons</t>
     </r>
     <r>
       <rPr>
@@ -406,16 +707,215 @@
   </si>
   <si>
     <r>
-      <t>Riptide @ Excitables (</t>
+      <t>Bulkheads @ Fringe (</t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="28"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dogfish @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Excitables (11) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Dogfish (0) @ Excitables (16)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Dragons (9)</t>
+  </si>
+  <si>
+    <t>Outsiders (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Clippers (10) @ Fringe (5)</t>
+  </si>
+  <si>
+    <t>Bulkheads (8) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Fringe (7) @ Dogfish (2)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Outsiders (3)</t>
+  </si>
+  <si>
+    <r>
+      <t>Outsiders @ Fringe (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Friday, July 11</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Clippers (13)</t>
+  </si>
+  <si>
+    <t>Riptide (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Dragons (7) @ Fringe (1)</t>
+  </si>
+  <si>
+    <t>Outsiders (2) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Excitables (4)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Clippers (11) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Clippers (12) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
+  </si>
+  <si>
+    <t>Fringe (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Outsiders (10) @ Clippers (7)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Fringe (3)</t>
+  </si>
+  <si>
+    <t>Bulkheads (4) @ Excitables (0)</t>
+  </si>
+  <si>
+    <t>Riptide (3) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Excitables (4) @ Dragons (1)</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>SVFD (10) vs. FHFD (9)</t>
+  </si>
+  <si>
+    <t>Dogfish (4) @ Bulkheads (6)</t>
+  </si>
+  <si>
+    <t>Outsiders (15) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Clippers (3) @ Dragons (8)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fringe (4) @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Clippers</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -429,622 +929,49 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Dogfish @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Excitables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bulkheads</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Riptide @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Riptide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Clippers (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clippers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dogfish @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Excitables (11) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Dogfish (0) @ Excitables (16)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Dragons (9)</t>
-  </si>
-  <si>
-    <t>Outsiders (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Clippers (10) @ Fringe (5)</t>
-  </si>
-  <si>
-    <t>Bulkheads (8) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Fringe (7) @ Dogfish (2)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Outsiders (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>Outsiders @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Friday, July 11</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Clippers (13)</t>
-  </si>
-  <si>
-    <t>Riptide (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Dragons (7) @ Fringe (1)</t>
-  </si>
-  <si>
-    <t>Outsiders (2) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Outsiders (6) @ Excitables (4)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>Clippers (11) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Clippers (12) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
-  </si>
-  <si>
-    <t>Fringe (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Outsiders (10) @ Clippers (7)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Fringe (3)</t>
-  </si>
-  <si>
-    <t>Bulkheads (4) @ Excitables (0)</t>
-  </si>
-  <si>
-    <t>Riptide (3) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Excitables (4) @ Dragons (1)</t>
-  </si>
-  <si>
-    <t>UPDATED: July 9, 2025</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>+22</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>UPDATED: July 15, 2025</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>+13</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>+26</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +982,7 @@
     <numFmt numFmtId="164" formatCode="_(#,##0.0%_);\(#,##0.0%\);_(&quot;–&quot;_)_%;_(@_)_%"/>
     <numFmt numFmtId="165" formatCode="\+0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,6 +1074,11 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1174,7 +1106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1341,11 +1273,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1398,9 +1361,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1487,6 +1447,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1790,11 +1764,11 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A17" zoomScale="58" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="37" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" customWidth="1"/>
@@ -1820,9 +1794,9 @@
     <col min="25" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:30" ht="47" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1845,10 +1819,10 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="2:30" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1858,7 +1832,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1866,21 +1840,21 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="40"/>
+      <c r="U3" s="39"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1890,7 +1864,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1900,20 +1874,20 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="8">
         <v>0.5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1927,23 +1901,23 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" s="6"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1953,11 +1927,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+        <v>76</v>
+      </c>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
       <c r="W6" s="14"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="16"/>
@@ -1967,18 +1941,18 @@
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="12">
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I7" s="8">
         <v>0.5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -2001,7 +1975,7 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
     </row>
-    <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2014,7 +1988,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2024,7 +1998,7 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -2039,44 +2013,44 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
     </row>
-    <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="12">
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="40"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="2:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:30" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="8">
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -2086,11 +2060,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
+        <v>78</v>
+      </c>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8"/>
       <c r="X10" s="16"/>
@@ -2101,12 +2075,12 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="2:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:30" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
@@ -2114,14 +2088,14 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
       <c r="W11" s="8"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -2131,16 +2105,21 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
     </row>
-    <row r="12" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="P12" s="6"/>
       <c r="W12" s="22"/>
       <c r="X12" s="15"/>
@@ -2151,7 +2130,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -2160,14 +2139,16 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="12">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="I13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="P13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="16"/>
@@ -2178,30 +2159,32 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
     </row>
-    <row r="14" spans="2:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:30" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="17">
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="I14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="I14" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="P14" s="11">
         <v>0.75</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W14" s="8"/>
       <c r="X14" s="6"/>
@@ -2212,36 +2195,32 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
     </row>
-    <row r="15" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="15"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="I15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="I15" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="P15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -2251,14 +2230,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="W16" s="15"/>
     </row>
-    <row r="17" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="11">
         <v>0.45833333333333331</v>
       </c>
@@ -2266,16 +2245,20 @@
         <v>19</v>
       </c>
       <c r="I17" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>73</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
       <c r="P17" s="8">
         <v>0.5</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -2284,26 +2267,28 @@
       <c r="V17" s="13"/>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="15">
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="I18" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
       <c r="P18" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -2311,58 +2296,49 @@
       <c r="U18" s="13"/>
       <c r="W18" s="15"/>
     </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>105</v>
+      <c r="C19" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="I19" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
       <c r="P19" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="W19" s="15"/>
     </row>
-    <row r="20" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="46"/>
+    <row r="20" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="45"/>
       <c r="C20" s="13"/>
-      <c r="I20" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="I20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="P20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -2371,17 +2347,19 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="I21" s="12">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="P21" s="17">
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -2390,50 +2368,50 @@
       <c r="V21" s="7"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="12">
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="I22" s="6" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="U22" s="13"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W22" s="28"/>
+    </row>
+    <row r="23" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="8">
         <v>0.5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="I23" s="12">
-        <v>0.76041666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+        <v>83</v>
+      </c>
       <c r="P23" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2441,33 +2419,32 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="P24" s="15">
         <v>0.4375</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="28"/>
+      <c r="U24" s="27"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
@@ -2477,16 +2454,16 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="I25" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>90</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="P25" s="11">
         <v>0.70833333333333337</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
@@ -2494,25 +2471,25 @@
       <c r="U25" s="13"/>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="I26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>99</v>
+      <c r="I26" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -2520,23 +2497,25 @@
       <c r="T26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="17">
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="I27" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="I27" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
       <c r="P27" s="11">
         <v>0.41666666666666669</v>
       </c>
@@ -2546,34 +2525,31 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="W27" s="28"/>
+    </row>
+    <row r="28" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="I28" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>76</v>
+      <c r="I28" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="P28" s="17">
         <v>0.5</v>
       </c>
-      <c r="Q28" s="27" t="s">
-        <v>54</v>
+      <c r="Q28" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
       <c r="V28" s="16"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W28" s="28"/>
+    </row>
+    <row r="29" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
@@ -2582,107 +2558,113 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="I29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
+      <c r="I29" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="28"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="7"/>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="I30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P30" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="P30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-    </row>
-    <row r="31" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="12">
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="I31" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="I31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
       <c r="P31" s="15">
         <v>0.4375</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
     </row>
-    <row r="32" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="11">
         <v>0.60416666666666663</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="31"/>
+      <c r="I32" s="11">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="O32" s="30"/>
       <c r="P32" s="15">
         <v>0.70833333333333337</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
       <c r="U32" s="8"/>
     </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2695,18 +2677,18 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="6"/>
       <c r="W33" s="6"/>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
@@ -2715,356 +2697,339 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="I34" s="11">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="O34" s="31"/>
+      <c r="I34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="30"/>
       <c r="P34" s="15">
         <v>0.4375</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="I35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="I35" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="O35" s="24"/>
       <c r="P35" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="26"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
       <c r="T35" s="20"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="8">
         <v>0.5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="I36" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-    </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="I37" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O37" s="41"/>
-      <c r="Q37" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="55"/>
-    </row>
-    <row r="38" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I37" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="O37" s="40"/>
+      <c r="Q37" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="54"/>
+    </row>
+    <row r="38" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="O38" s="32"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="58"/>
-    </row>
-    <row r="39" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="O38" s="31"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="57"/>
+    </row>
+    <row r="39" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="I39" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-    </row>
-    <row r="40" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="P40" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="X40" s="43"/>
-    </row>
-    <row r="41" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="P40" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="X40" s="42"/>
+    </row>
+    <row r="41" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="43"/>
       <c r="B41" s="17">
         <v>0.5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="P41" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="P41" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="Q41" s="34" t="s">
+      <c r="Q41" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="34" t="s">
+      <c r="R41" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="S41" s="34" t="s">
+      <c r="S41" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T41" s="34" t="s">
+      <c r="T41" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="U41" s="34" t="s">
+      <c r="U41" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="34" t="s">
+      <c r="V41" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X41" s="43"/>
-    </row>
-    <row r="42" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="44"/>
+      <c r="X41" s="42"/>
+    </row>
+    <row r="42" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="43"/>
       <c r="B42" s="15"/>
       <c r="C42" s="13"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="P42" s="35" t="s">
+      <c r="P42" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Q42" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="R42" s="37">
-        <v>800</v>
-      </c>
-      <c r="S42" s="38">
-        <v>24</v>
-      </c>
-      <c r="T42" s="38">
-        <v>16</v>
-      </c>
-      <c r="U42" s="39">
-        <v>8</v>
-      </c>
-      <c r="V42" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="X42" s="43"/>
-    </row>
-    <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="44"/>
+      <c r="Q42" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="R42" s="36">
+        <v>833</v>
+      </c>
+      <c r="S42" s="37">
+        <v>30</v>
+      </c>
+      <c r="T42" s="37">
+        <v>20</v>
+      </c>
+      <c r="U42" s="38">
+        <v>10</v>
+      </c>
+      <c r="V42" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="X42" s="42"/>
+    </row>
+    <row r="43" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="43"/>
       <c r="B43" s="15"/>
       <c r="C43" s="13"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="P43" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="R43" s="37">
+      <c r="P43" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="R43" s="36">
         <v>714</v>
       </c>
-      <c r="S43" s="38">
-        <v>61</v>
-      </c>
-      <c r="T43" s="38">
+      <c r="S43" s="37">
         <v>37</v>
       </c>
-      <c r="U43" s="39">
-        <v>24</v>
-      </c>
-      <c r="V43" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="X43" s="43"/>
-    </row>
-    <row r="44" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="T43" s="37">
+        <v>29</v>
+      </c>
+      <c r="U43" s="38">
+        <v>8</v>
+      </c>
+      <c r="V43" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="X43" s="42"/>
+    </row>
+    <row r="44" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="8"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="40"/>
-      <c r="P44" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q44" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="R44" s="37">
-        <v>667</v>
-      </c>
-      <c r="S44" s="38">
-        <v>29</v>
-      </c>
-      <c r="T44" s="38">
-        <v>26</v>
-      </c>
-      <c r="U44" s="39">
-        <v>3</v>
-      </c>
-      <c r="V44" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="X44" s="43"/>
-    </row>
-    <row r="45" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N44" s="39"/>
+      <c r="P44" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="R44" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="S44" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="T44" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="U44" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="V44" s="22">
+        <v>8</v>
+      </c>
+      <c r="X44" s="42"/>
+    </row>
+    <row r="45" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="15"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="P45" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="36" t="s">
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="P45" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="R45" s="36" t="s">
+      <c r="R45" s="36">
+        <v>625</v>
+      </c>
+      <c r="S45" s="37">
+        <v>64</v>
+      </c>
+      <c r="T45" s="37">
+        <v>45</v>
+      </c>
+      <c r="U45" s="38">
+        <v>19</v>
+      </c>
+      <c r="V45" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="S45" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="T45" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="U45" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="V45" s="22">
-        <v>8</v>
-      </c>
-      <c r="X45" s="43"/>
-    </row>
-    <row r="46" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X45" s="42"/>
+    </row>
+    <row r="46" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="I46" s="8"/>
-      <c r="P46" s="35" t="s">
+      <c r="P46" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q46" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="R46" s="37">
-        <v>500</v>
-      </c>
-      <c r="S46" s="38">
-        <v>25</v>
-      </c>
-      <c r="T46" s="38">
-        <v>25</v>
-      </c>
-      <c r="U46" s="38">
-        <v>0</v>
-      </c>
-      <c r="V46" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="X46" s="43"/>
-    </row>
-    <row r="47" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q46" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="R46" s="36">
+        <v>571</v>
+      </c>
+      <c r="S46" s="37">
+        <v>40</v>
+      </c>
+      <c r="T46" s="37">
+        <v>27</v>
+      </c>
+      <c r="U46" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="V46" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="X46" s="42"/>
+    </row>
+    <row r="47" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3075,30 +3040,30 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="P47" s="35" t="s">
+      <c r="P47" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Q47" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="R47" s="37">
-        <v>400</v>
-      </c>
-      <c r="S47" s="38">
-        <v>16</v>
-      </c>
-      <c r="T47" s="38">
-        <v>25</v>
-      </c>
-      <c r="U47" s="38">
-        <v>-9</v>
-      </c>
-      <c r="V47" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="X47" s="43"/>
-    </row>
-    <row r="48" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q47" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="R47" s="36">
+        <v>333</v>
+      </c>
+      <c r="S47" s="37">
+        <v>20</v>
+      </c>
+      <c r="T47" s="37">
+        <v>33</v>
+      </c>
+      <c r="U47" s="37">
+        <v>-13</v>
+      </c>
+      <c r="V47" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="X47" s="42"/>
+    </row>
+    <row r="48" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -3108,130 +3073,130 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="P48" s="35" t="s">
+      <c r="P48" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q48" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="R48" s="42">
-        <v>200</v>
-      </c>
-      <c r="S48" s="38">
-        <v>13</v>
-      </c>
-      <c r="T48" s="38">
-        <v>30</v>
-      </c>
-      <c r="U48" s="38">
-        <v>-17</v>
-      </c>
-      <c r="V48" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="X48" s="43"/>
-    </row>
-    <row r="49" spans="2:22" ht="38" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q48" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="R48" s="41">
+        <v>166</v>
+      </c>
+      <c r="S48" s="37">
+        <v>15</v>
+      </c>
+      <c r="T48" s="37">
+        <v>45</v>
+      </c>
+      <c r="U48" s="37">
+        <v>-30</v>
+      </c>
+      <c r="V48" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="X48" s="42"/>
+    </row>
+    <row r="49" spans="2:22" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I49" s="4"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="P49" s="35" t="s">
+      <c r="P49" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="R49" s="42">
-        <v>143</v>
-      </c>
-      <c r="S49" s="38">
-        <v>17</v>
-      </c>
-      <c r="T49" s="38">
-        <v>48</v>
-      </c>
-      <c r="U49" s="38">
-        <v>-31</v>
-      </c>
-      <c r="V49" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="Q49" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="R49" s="41">
+        <v>125</v>
+      </c>
+      <c r="S49" s="37">
+        <v>21</v>
+      </c>
+      <c r="T49" s="37">
+        <v>54</v>
+      </c>
+      <c r="U49" s="37">
+        <v>-33</v>
+      </c>
+      <c r="V49" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I50" s="4"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="51"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="50"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
-      <c r="V50" s="50"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="V50" s="49"/>
+    </row>
+    <row r="51" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I52" s="4"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="3"/>
     </row>
-    <row r="76" spans="9:14" x14ac:dyDescent="0.45">
-      <c r="I76" s="29"/>
+    <row r="76" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I76" s="28"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="9:14" x14ac:dyDescent="0.45">
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-    </row>
-    <row r="78" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+    </row>
+    <row r="78" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -3239,10 +3204,10 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -3250,7 +3215,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
@@ -3258,17 +3223,17 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I84" s="15"/>
     </row>
-    <row r="85" spans="9:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I85" s="15"/>
     </row>
   </sheetData>
@@ -3277,9 +3242,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="33" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="31" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="T45:U45 V42:V49 R45:S45" numberStoredAsText="1"/>
+    <ignoredError sqref="V48 V46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF3435-FA01-0842-A0BB-C9648E37DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA806EE4-AEAD-134F-AC91-0C7188A4F71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="500" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
     <sheet name="2025 Schedule" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$45</definedName>
     <definedName name="CIQWBGuid" hidden="1">"50be515a-d852-4fa0-a759-690b27d38276"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.49.2423.4439"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>Team</t>
   </si>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <r>
-      <t>Outsiders @ Dragons (</t>
+      <t>Dogfish @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -280,6 +280,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excitables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Bulkheads</t>
     </r>
     <r>
@@ -295,16 +347,250 @@
   </si>
   <si>
     <r>
-      <t>Riptide @ Excitables (</t>
+      <t>Excitables @ Fringe (</t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="28"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riptide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fringe @ Clippers (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clippers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fringe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fringe @ Dragons (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Clippers</t>
+      <t>Outsiders</t>
     </r>
     <r>
       <rPr>
@@ -319,7 +605,7 @@
   </si>
   <si>
     <r>
-      <t>Dogfish @ Fringe (</t>
+      <t>Excitables @ Bulkheads (</t>
     </r>
     <r>
       <rPr>
@@ -345,7 +631,7 @@
   </si>
   <si>
     <r>
-      <t>Clippers @ Excitables (</t>
+      <t>Bulkheads @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -371,7 +657,7 @@
   </si>
   <si>
     <r>
-      <t>Dragons @ Bulkheads (</t>
+      <t>Dogfish @ Riptide (</t>
     </r>
     <r>
       <rPr>
@@ -382,7 +668,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Excitables</t>
+      <t>Dragons</t>
     </r>
     <r>
       <rPr>
@@ -396,8 +682,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Dragons @ Excitables (</t>
+    <t>Excitables (11) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Dogfish (0) @ Excitables (16)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Dragons (9)</t>
+  </si>
+  <si>
+    <t>Outsiders (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Clippers (10) @ Fringe (5)</t>
+  </si>
+  <si>
+    <t>Bulkheads (8) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Fringe (7) @ Dogfish (2)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Outsiders (3)</t>
+  </si>
+  <si>
+    <r>
+      <t>Outsiders @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -408,7 +718,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bulkheads</t>
+      <t>Dogfish</t>
     </r>
     <r>
       <rPr>
@@ -423,7 +733,7 @@
   </si>
   <si>
     <r>
-      <t>Excitables @ Fringe (</t>
+      <t>Bulkheads @ Riptide (</t>
     </r>
     <r>
       <rPr>
@@ -434,7 +744,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dogfish</t>
+      <t>Chefetz</t>
     </r>
     <r>
       <rPr>
@@ -448,19 +758,79 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Riptide @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Friday, July 11</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Clippers (13)</t>
+  </si>
+  <si>
+    <t>Riptide (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Dragons (7) @ Fringe (1)</t>
+  </si>
+  <si>
+    <t>Outsiders (2) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Excitables (4)</t>
+  </si>
+  <si>
+    <t>Clippers (11) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Clippers (12) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
+  </si>
+  <si>
+    <t>Fringe (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Outsiders (10) @ Clippers (7)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Fringe (3)</t>
+  </si>
+  <si>
+    <t>Bulkheads (4) @ Excitables (0)</t>
+  </si>
+  <si>
+    <t>Riptide (3) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Excitables (4) @ Dragons (1)</t>
+  </si>
+  <si>
+    <t>SVFD (10) vs. FHFD (9)</t>
+  </si>
+  <si>
+    <t>Dogfish (4) @ Bulkheads (6)</t>
+  </si>
+  <si>
+    <t>Outsiders (15) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Clippers (3) @ Dragons (8)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fringe (4) @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -474,19 +844,43 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Bulkheads @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Riptide</t>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>WSCSS: #5</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Dragons (5) - 8 ings</t>
+  </si>
+  <si>
+    <r>
+      <t>Riptide (1) @ Excitables (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -500,478 +894,40 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Clippers @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Clippers (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clippers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dogfish @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Excitables (11) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Dogfish (0) @ Excitables (16)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Dragons (9)</t>
-  </si>
-  <si>
-    <t>Outsiders (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Clippers (10) @ Fringe (5)</t>
-  </si>
-  <si>
-    <t>Bulkheads (8) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Fringe (7) @ Dogfish (2)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Outsiders (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>Outsiders @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Friday, July 11</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Clippers (13)</t>
-  </si>
-  <si>
-    <t>Riptide (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Dragons (7) @ Fringe (1)</t>
-  </si>
-  <si>
-    <t>Outsiders (2) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Outsiders (6) @ Excitables (4)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Clippers (11) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Clippers (12) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
-  </si>
-  <si>
-    <t>Fringe (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Outsiders (10) @ Clippers (7)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Fringe (3)</t>
-  </si>
-  <si>
-    <t>Bulkheads (4) @ Excitables (0)</t>
-  </si>
-  <si>
-    <t>Riptide (3) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Excitables (4) @ Dragons (1)</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>SVFD (10) vs. FHFD (9)</t>
-  </si>
-  <si>
-    <t>Dogfish (4) @ Bulkheads (6)</t>
-  </si>
-  <si>
-    <t>Outsiders (15) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Clippers (3) @ Dragons (8)</t>
-  </si>
-  <si>
-    <r>
-      <t>Fringe (4) @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>UPDATED: July 15, 2025</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>+13</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>+26</t>
+    <t>Clippers (3) @ Excitables (9)</t>
+  </si>
+  <si>
+    <t>UPDATED: July 21, 2025</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>+36</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>+14</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1429,6 +1385,13 @@
     <xf numFmtId="18" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,20 +1410,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,8 +1719,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A20" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1832,7 +1787,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1854,7 +1809,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1864,7 +1819,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1874,7 +1829,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
@@ -1911,13 +1866,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1927,7 +1882,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
@@ -1946,13 +1901,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I7" s="8">
         <v>0.5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1988,7 +1943,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1998,7 +1953,7 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -2018,7 +1973,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>31</v>
@@ -2044,13 +1999,13 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -2060,7 +2015,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -2080,7 +2035,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
@@ -2110,7 +2065,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>32</v>
@@ -2164,7 +2119,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2174,7 +2129,7 @@
         <v>0.5625</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -2206,7 +2161,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>43</v>
@@ -2230,35 +2185,35 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="W16" s="15"/>
     </row>
-    <row r="17" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="11">
         <v>0.45833333333333331</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="I17" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
       <c r="P17" s="8">
         <v>0.5</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -2267,28 +2222,20 @@
       <c r="V17" s="13"/>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="15">
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+        <v>93</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="13"/>
       <c r="P18" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -2301,23 +2248,22 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
+      <c r="I19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="P19" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -2327,11 +2273,14 @@
     <row r="20" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="45"/>
       <c r="C20" s="13"/>
-      <c r="I20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="I20" s="12">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
       <c r="P20" s="6" t="s">
         <v>44</v>
       </c>
@@ -2347,19 +2296,18 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="12">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="I21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="P21" s="17">
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -2373,19 +2321,18 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="I22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="I22" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="6"/>
@@ -2398,17 +2345,17 @@
         <v>0.5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="I23" s="12">
-        <v>0.41666666666666669</v>
+      <c r="I23" s="8">
+        <v>0.5</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>45</v>
@@ -2424,13 +2371,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="P24" s="15">
         <v>0.4375</v>
@@ -2453,11 +2400,11 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="I25" s="12">
-        <v>0.58333333333333337</v>
+      <c r="I25" s="11">
+        <v>0.72916666666666663</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P25" s="11">
         <v>0.70833333333333337</v>
@@ -2476,18 +2423,20 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="I26" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="I26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
       <c r="P26" s="6" t="s">
         <v>46</v>
       </c>
@@ -2502,25 +2451,20 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="I27" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
+      <c r="I27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="P27" s="11">
         <v>0.41666666666666669</v>
       </c>
       <c r="Q27" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2534,8 +2478,11 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>35</v>
+      <c r="I28" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="P28" s="17">
         <v>0.5</v>
@@ -2558,12 +2505,16 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="I29" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="I29" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
@@ -2582,12 +2533,6 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
       <c r="P30" s="27" t="s">
         <v>47</v>
       </c>
@@ -2604,7 +2549,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2642,12 +2587,11 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="O32" s="30"/>
       <c r="P32" s="15">
         <v>0.70833333333333337</v>
       </c>
@@ -2664,7 +2608,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2677,7 +2621,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="31"/>
+      <c r="O33" s="30"/>
       <c r="P33" s="27" t="s">
         <v>48</v>
       </c>
@@ -2705,12 +2649,12 @@
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
-      <c r="O34" s="30"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="15">
         <v>0.4375</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
@@ -2722,19 +2666,19 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="I35" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O35" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="O35" s="30"/>
       <c r="P35" s="17">
         <v>0.70833333333333337</v>
       </c>
@@ -2749,84 +2693,86 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="I36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="6"/>
+      <c r="I36" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="I37" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="O37" s="40"/>
-      <c r="Q37" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="54"/>
+      <c r="I37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="Q37" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="57"/>
     </row>
     <row r="38" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="O38" s="31"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="57"/>
-    </row>
-    <row r="39" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="O38" s="40"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="60"/>
+    </row>
+    <row r="39" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="I39" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P40" s="47" t="s">
         <v>53</v>
@@ -2845,7 +2791,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -2886,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R42" s="36">
         <v>833</v>
@@ -2901,7 +2847,7 @@
         <v>10</v>
       </c>
       <c r="V42" s="35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="X42" s="42"/>
     </row>
@@ -2914,25 +2860,25 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="P43" s="34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="R43" s="36">
-        <v>714</v>
-      </c>
-      <c r="S43" s="37">
-        <v>37</v>
-      </c>
-      <c r="T43" s="37">
-        <v>29</v>
-      </c>
-      <c r="U43" s="38">
-        <v>8</v>
-      </c>
-      <c r="V43" s="35" t="s">
-        <v>101</v>
+        <v>125</v>
+      </c>
+      <c r="R43" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S43" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="T43" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="U43" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="V43" s="22">
+        <v>10</v>
       </c>
       <c r="X43" s="42"/>
     </row>
@@ -2945,25 +2891,25 @@
       <c r="M44" s="6"/>
       <c r="N44" s="39"/>
       <c r="P44" s="34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="R44" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="S44" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="R44" s="36">
+        <v>625</v>
+      </c>
+      <c r="S44" s="37">
+        <v>46</v>
+      </c>
+      <c r="T44" s="37">
+        <v>32</v>
+      </c>
+      <c r="U44" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="T44" s="35" t="s">
+      <c r="V44" s="35" t="s">
         <v>132</v>
-      </c>
-      <c r="U44" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V44" s="22">
-        <v>8</v>
       </c>
       <c r="X44" s="42"/>
     </row>
@@ -2978,25 +2924,25 @@
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
       <c r="P45" s="34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q45" s="35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="R45" s="36">
         <v>625</v>
       </c>
       <c r="S45" s="37">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="T45" s="37">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U45" s="38">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="V45" s="35" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X45" s="42"/>
     </row>
@@ -3007,25 +2953,25 @@
       <c r="G46" s="6"/>
       <c r="I46" s="8"/>
       <c r="P46" s="34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="R46" s="36">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="S46" s="37">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="T46" s="37">
-        <v>27</v>
-      </c>
-      <c r="U46" s="35" t="s">
-        <v>124</v>
+        <v>54</v>
+      </c>
+      <c r="U46" s="38">
+        <v>13</v>
       </c>
       <c r="V46" s="35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X46" s="42"/>
     </row>
@@ -3044,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="35" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="R47" s="36">
         <v>333</v>
@@ -3059,7 +3005,7 @@
         <v>-13</v>
       </c>
       <c r="V47" s="35" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X47" s="42"/>
     </row>
@@ -3077,22 +3023,22 @@
         <v>13</v>
       </c>
       <c r="Q48" s="35" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="R48" s="41">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="S48" s="37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T48" s="37">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U48" s="37">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="V48" s="35" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="X48" s="42"/>
     </row>
@@ -3106,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="Q49" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R49" s="41">
         <v>125</v>
@@ -3121,7 +3067,7 @@
         <v>-33</v>
       </c>
       <c r="V49" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -3243,8 +3189,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="31" orientation="landscape" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="V48 V46" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA806EE4-AEAD-134F-AC91-0C7188A4F71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D208D7-9A49-B746-87B4-ADF650A3E1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>Team</t>
   </si>
@@ -269,7 +269,85 @@
   </si>
   <si>
     <r>
-      <t>Dogfish @ Fringe (</t>
+      <t>Excitables @ Fringe (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dogfish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Riptide @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riptide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clippers @ Outsiders (</t>
     </r>
     <r>
       <rPr>
@@ -295,7 +373,7 @@
   </si>
   <si>
     <r>
-      <t>Dragons @ Bulkheads (</t>
+      <t>Fringe @ Clippers (</t>
     </r>
     <r>
       <rPr>
@@ -306,7 +384,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Excitables</t>
+      <t>Chefetz</t>
     </r>
     <r>
       <rPr>
@@ -321,7 +399,7 @@
   </si>
   <si>
     <r>
-      <t>Dragons @ Excitables (</t>
+      <t>Bulkheads @ Outsiders (</t>
     </r>
     <r>
       <rPr>
@@ -332,7 +410,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bulkheads</t>
+      <t>Clippers</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +425,59 @@
   </si>
   <si>
     <r>
-      <t>Excitables @ Fringe (</t>
+      <t>Excitables @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fringe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fringe @ Dragons (</t>
     </r>
     <r>
       <rPr>
@@ -373,7 +503,57 @@
   </si>
   <si>
     <r>
-      <t>Riptide @ Outsiders (</t>
+      <t>Clippers @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -398,19 +578,103 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Bulkheads @ Dogfish (</t>
+    <t>Excitables (11) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Dogfish (0) @ Excitables (16)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Dragons (9)</t>
+  </si>
+  <si>
+    <t>Outsiders (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Clippers (10) @ Fringe (5)</t>
+  </si>
+  <si>
+    <t>Bulkheads (8) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Fringe (7) @ Dogfish (2)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Outsiders (3)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Friday, July 11</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Clippers (13)</t>
+  </si>
+  <si>
+    <t>Riptide (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Dragons (7) @ Fringe (1)</t>
+  </si>
+  <si>
+    <t>Outsiders (2) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Excitables (4)</t>
+  </si>
+  <si>
+    <t>Clippers (11) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Clippers (12) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
+  </si>
+  <si>
+    <t>Fringe (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Outsiders (10) @ Clippers (7)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Fringe (3)</t>
+  </si>
+  <si>
+    <t>Bulkheads (4) @ Excitables (0)</t>
+  </si>
+  <si>
+    <t>Riptide (3) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Excitables (4) @ Dragons (1)</t>
+  </si>
+  <si>
+    <t>SVFD (10) vs. FHFD (9)</t>
+  </si>
+  <si>
+    <t>Dogfish (4) @ Bulkheads (6)</t>
+  </si>
+  <si>
+    <t>Outsiders (15) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Clippers (3) @ Dragons (8)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fringe (4) @ Excitables (</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Riptide</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -424,19 +688,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Clippers @ Outsiders (</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Dragons (5) - 8 ings</t>
+  </si>
+  <si>
+    <r>
+      <t>Riptide (1) @ Excitables (</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Dragons</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -450,8 +717,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Fringe @ Clippers (</t>
+    <t>Clippers (3) @ Excitables (9)</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Dragons (2) @ Excitables (8)</t>
+  </si>
+  <si>
+    <t>Dogfish (5) @ Riptide (4)</t>
+  </si>
+  <si>
+    <t>Outsiders (1) @ Fringe (0)</t>
+  </si>
+  <si>
+    <r>
+      <t>Dragons (6) @ Bulkheads (</t>
     </r>
     <r>
       <rPr>
@@ -462,7 +753,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Chefetz</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -476,458 +767,52 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Bulkheads @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clippers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dogfish @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Excitables (11) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Dogfish (0) @ Excitables (16)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Dragons (9)</t>
-  </si>
-  <si>
-    <t>Outsiders (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Clippers (10) @ Fringe (5)</t>
-  </si>
-  <si>
-    <t>Bulkheads (8) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Fringe (7) @ Dogfish (2)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Outsiders (3)</t>
-  </si>
-  <si>
-    <r>
-      <t>Outsiders @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Friday, July 11</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Clippers (13)</t>
-  </si>
-  <si>
-    <t>Riptide (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Dragons (7) @ Fringe (1)</t>
-  </si>
-  <si>
-    <t>Outsiders (2) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Outsiders (6) @ Excitables (4)</t>
-  </si>
-  <si>
-    <t>Clippers (11) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Clippers (12) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
-  </si>
-  <si>
-    <t>Fringe (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Outsiders (10) @ Clippers (7)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Fringe (3)</t>
-  </si>
-  <si>
-    <t>Bulkheads (4) @ Excitables (0)</t>
-  </si>
-  <si>
-    <t>Riptide (3) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Excitables (4) @ Dragons (1)</t>
-  </si>
-  <si>
-    <t>SVFD (10) vs. FHFD (9)</t>
-  </si>
-  <si>
-    <t>Dogfish (4) @ Bulkheads (6)</t>
-  </si>
-  <si>
-    <t>Outsiders (15) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Clippers (3) @ Dragons (8)</t>
-  </si>
-  <si>
-    <r>
-      <t>Fringe (4) @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>WSCSS: #5</t>
-  </si>
-  <si>
-    <t>Outsiders (6) @ Dragons (5) - 8 ings</t>
-  </si>
-  <si>
-    <r>
-      <t>Riptide (1) @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Clippers (3) @ Excitables (9)</t>
-  </si>
-  <si>
-    <t>UPDATED: July 21, 2025</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>+36</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>+14</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Bulkheads (2) @ Riptide (3)</t>
+  </si>
+  <si>
+    <t>Dogfish (1) @ Fringe (2) - 9 ings</t>
+  </si>
+  <si>
+    <t>UPDATED: July 29, 2025</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>+42</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>+15</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2-8</t>
   </si>
 </sst>
 </file>
@@ -1392,6 +1277,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,12 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,8 +1604,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A20" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B16" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1787,7 +1672,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1809,7 +1694,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1819,7 +1704,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1829,7 +1714,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
@@ -1866,13 +1751,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1882,7 +1767,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
@@ -1901,13 +1786,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I7" s="8">
         <v>0.5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1943,7 +1828,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1953,7 +1838,7 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -1973,7 +1858,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>31</v>
@@ -1999,13 +1884,13 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -2015,7 +1900,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -2035,7 +1920,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
@@ -2065,7 +1950,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>32</v>
@@ -2119,7 +2004,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2129,7 +2014,7 @@
         <v>0.5625</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -2161,7 +2046,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>43</v>
@@ -2185,7 +2070,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
@@ -2203,7 +2088,7 @@
         <v>0.5</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
@@ -2213,7 +2098,7 @@
         <v>0.5</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -2227,7 +2112,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
@@ -2235,7 +2120,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -2248,7 +2133,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -2263,7 +2148,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -2277,7 +2162,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -2307,7 +2192,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -2321,7 +2206,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2331,7 +2216,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="21"/>
@@ -2345,7 +2230,7 @@
         <v>0.5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -2355,7 +2240,7 @@
         <v>0.5</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>45</v>
@@ -2371,13 +2256,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0.58333333333333337</v>
+        <v>91</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.72916666666666663</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="P24" s="15">
         <v>0.4375</v>
@@ -2400,12 +2285,14 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="I25" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="I25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
       <c r="P25" s="11">
         <v>0.70833333333333337</v>
       </c>
@@ -2423,20 +2310,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="I26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
+      <c r="I26" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="P26" s="6" t="s">
         <v>46</v>
       </c>
@@ -2451,20 +2333,23 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="I27" s="6" t="s">
-        <v>35</v>
+      <c r="I27" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="P27" s="11">
         <v>0.41666666666666669</v>
       </c>
       <c r="Q27" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2478,12 +2363,16 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="I28" s="12">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>90</v>
-      </c>
+      <c r="I28" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
       <c r="P28" s="17">
         <v>0.5</v>
       </c>
@@ -2496,7 +2385,7 @@
       <c r="V28" s="16"/>
       <c r="W28" s="28"/>
     </row>
-    <row r="29" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
@@ -2505,16 +2394,6 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="I29" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
@@ -2533,6 +2412,14 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
+      <c r="I30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
       <c r="P30" s="27" t="s">
         <v>47</v>
       </c>
@@ -2549,20 +2436,21 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="I31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="I31" s="11">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
       <c r="P31" s="15">
         <v>0.4375</v>
       </c>
@@ -2583,15 +2471,14 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="11">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="I32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="P32" s="15">
         <v>0.70833333333333337</v>
       </c>
@@ -2608,19 +2495,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="I33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="I33" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="30"/>
       <c r="P33" s="27" t="s">
         <v>48</v>
@@ -2641,20 +2528,18 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="I34" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
+      <c r="I34" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="O34" s="31"/>
       <c r="P34" s="15">
         <v>0.4375</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
@@ -2666,17 +2551,17 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="I35" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="17">
@@ -2693,18 +2578,16 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="I36" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="I36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="6"/>
       <c r="O36" s="24"/>
     </row>
     <row r="37" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -2712,59 +2595,55 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="I37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="Q37" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="57"/>
+      <c r="I37" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="Q37" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="59"/>
     </row>
     <row r="38" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+        <v>99</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
       <c r="O38" s="40"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="60"/>
-    </row>
-    <row r="39" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q38" s="60"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="62"/>
+    </row>
+    <row r="39" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="I39" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
       <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -2772,7 +2651,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P40" s="47" t="s">
         <v>53</v>
@@ -2791,7 +2670,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -2829,25 +2708,25 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="P42" s="34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="R42" s="36">
-        <v>833</v>
-      </c>
-      <c r="S42" s="37">
-        <v>30</v>
-      </c>
-      <c r="T42" s="37">
-        <v>20</v>
-      </c>
-      <c r="U42" s="38">
-        <v>10</v>
-      </c>
-      <c r="V42" s="35" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="R42" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="S42" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="U42" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="V42" s="22">
+        <v>13</v>
       </c>
       <c r="X42" s="42"/>
     </row>
@@ -2860,25 +2739,25 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="P43" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="R43" s="36">
+        <v>750</v>
+      </c>
+      <c r="S43" s="37">
+        <v>39</v>
+      </c>
+      <c r="T43" s="37">
+        <v>29</v>
+      </c>
+      <c r="U43" s="38">
         <v>10</v>
       </c>
-      <c r="Q43" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="R43" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="S43" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="T43" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="U43" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="V43" s="22">
-        <v>10</v>
+      <c r="V43" s="35" t="s">
+        <v>107</v>
       </c>
       <c r="X43" s="42"/>
     </row>
@@ -2894,22 +2773,22 @@
         <v>12</v>
       </c>
       <c r="Q44" s="35" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="R44" s="36">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="S44" s="37">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T44" s="37">
         <v>32</v>
       </c>
       <c r="U44" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="V44" s="35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X44" s="42"/>
     </row>
@@ -2924,25 +2803,25 @@
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
       <c r="P45" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R45" s="36">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="S45" s="37">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="T45" s="37">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="U45" s="38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="V45" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X45" s="42"/>
     </row>
@@ -2953,25 +2832,25 @@
       <c r="G46" s="6"/>
       <c r="I46" s="8"/>
       <c r="P46" s="34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R46" s="36">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="S46" s="37">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="T46" s="37">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U46" s="38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V46" s="35" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="X46" s="42"/>
     </row>
@@ -2990,22 +2869,22 @@
         <v>11</v>
       </c>
       <c r="Q47" s="35" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="R47" s="36">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="S47" s="37">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T47" s="37">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U47" s="37">
         <v>-13</v>
       </c>
       <c r="V47" s="35" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="X47" s="42"/>
     </row>
@@ -3023,22 +2902,22 @@
         <v>13</v>
       </c>
       <c r="Q48" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R48" s="41">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="S48" s="37">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T48" s="37">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="U48" s="37">
         <v>-34</v>
       </c>
       <c r="V48" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X48" s="42"/>
     </row>
@@ -3052,22 +2931,22 @@
         <v>8</v>
       </c>
       <c r="Q49" s="35" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="R49" s="41">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="S49" s="37">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="T49" s="37">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="U49" s="37">
         <v>-33</v>
       </c>
       <c r="V49" s="35" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D208D7-9A49-B746-87B4-ADF650A3E1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501EF8CD-BE4A-EC44-8FF8-1EDF9788F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="500" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="820" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>Team</t>
   </si>
@@ -269,7 +269,111 @@
   </si>
   <si>
     <r>
-      <t>Excitables @ Fringe (</t>
+      <t>Fringe @ Clippers (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Outsiders (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clippers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Dogfish (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dragons @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fringe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fringe @ Dragons (</t>
     </r>
     <r>
       <rPr>
@@ -295,7 +399,57 @@
   </si>
   <si>
     <r>
-      <t>Riptide @ Outsiders (</t>
+      <t>Clippers @ Riptide (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Outsiders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Fringe (</t>
     </r>
     <r>
       <rPr>
@@ -320,19 +474,103 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Bulkheads @ Dogfish (</t>
+    <t>Excitables (11) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Dogfish (0) @ Excitables (16)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Dragons (9)</t>
+  </si>
+  <si>
+    <t>Outsiders (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Clippers (10) @ Fringe (5)</t>
+  </si>
+  <si>
+    <t>Bulkheads (8) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Fringe (7) @ Dogfish (2)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Outsiders (3)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Friday, July 11</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Clippers (13)</t>
+  </si>
+  <si>
+    <t>Riptide (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Dragons (7) @ Fringe (1)</t>
+  </si>
+  <si>
+    <t>Outsiders (2) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Excitables (4)</t>
+  </si>
+  <si>
+    <t>Clippers (11) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Clippers (12) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
+  </si>
+  <si>
+    <t>Fringe (0) @ Bulkheads (4)</t>
+  </si>
+  <si>
+    <t>Outsiders (10) @ Clippers (7)</t>
+  </si>
+  <si>
+    <t>Dragons (4) @ Dogfish (3)</t>
+  </si>
+  <si>
+    <t>Riptide (2) @ Fringe (3)</t>
+  </si>
+  <si>
+    <t>Bulkheads (4) @ Excitables (0)</t>
+  </si>
+  <si>
+    <t>Riptide (3) @ Clippers (4)</t>
+  </si>
+  <si>
+    <t>Excitables (4) @ Dragons (1)</t>
+  </si>
+  <si>
+    <t>SVFD (10) vs. FHFD (9)</t>
+  </si>
+  <si>
+    <t>Dogfish (4) @ Bulkheads (6)</t>
+  </si>
+  <si>
+    <t>Outsiders (15) @ Riptide (2)</t>
+  </si>
+  <si>
+    <t>Clippers (3) @ Dragons (8)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fringe (4) @ Excitables (</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Riptide</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -346,19 +584,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Clippers @ Outsiders (</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Outsiders (6) @ Dragons (5) - 8 ings</t>
+  </si>
+  <si>
+    <r>
+      <t>Riptide (1) @ Excitables (</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Dragons</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -372,358 +613,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Fringe @ Clippers (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clippers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Excitables (11) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Dogfish (0) @ Excitables (16)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Dragons (9)</t>
-  </si>
-  <si>
-    <t>Outsiders (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Clippers (10) @ Fringe (5)</t>
-  </si>
-  <si>
-    <t>Bulkheads (8) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Fringe (7) @ Dogfish (2)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Outsiders (3)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Friday, July 11</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Clippers (13)</t>
-  </si>
-  <si>
-    <t>Riptide (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Dragons (7) @ Fringe (1)</t>
-  </si>
-  <si>
-    <t>Outsiders (2) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Outsiders (6) @ Excitables (4)</t>
-  </si>
-  <si>
-    <t>Clippers (11) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Clippers (12) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Dogfish (3) @ Outsiders (4) - 10 ings</t>
-  </si>
-  <si>
-    <t>Fringe (0) @ Bulkheads (4)</t>
-  </si>
-  <si>
-    <t>Outsiders (10) @ Clippers (7)</t>
-  </si>
-  <si>
-    <t>Dragons (4) @ Dogfish (3)</t>
-  </si>
-  <si>
-    <t>Riptide (2) @ Fringe (3)</t>
-  </si>
-  <si>
-    <t>Bulkheads (4) @ Excitables (0)</t>
-  </si>
-  <si>
-    <t>Riptide (3) @ Clippers (4)</t>
-  </si>
-  <si>
-    <t>Excitables (4) @ Dragons (1)</t>
-  </si>
-  <si>
-    <t>SVFD (10) vs. FHFD (9)</t>
-  </si>
-  <si>
-    <t>Dogfish (4) @ Bulkheads (6)</t>
-  </si>
-  <si>
-    <t>Outsiders (15) @ Riptide (2)</t>
-  </si>
-  <si>
-    <t>Clippers (3) @ Dragons (8)</t>
-  </si>
-  <si>
-    <r>
-      <t>Fringe (4) @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Outsiders (6) @ Dragons (5) - 8 ings</t>
-  </si>
-  <si>
-    <r>
-      <t>Riptide (1) @ Excitables (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Clippers (3) @ Excitables (9)</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-4</t>
   </si>
   <si>
     <t>22</t>
@@ -773,46 +663,67 @@
     <t>Dogfish (1) @ Fringe (2) - 9 ings</t>
   </si>
   <si>
-    <t>UPDATED: July 29, 2025</t>
-  </si>
-  <si>
     <t>7-2</t>
   </si>
   <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>+42</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>+15</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>5-5</t>
   </si>
   <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>2-8</t>
+  </si>
+  <si>
+    <t>Excitables (13) @ Fringe (0)</t>
+  </si>
+  <si>
+    <t>Riptide (0) @ Outsiders (8)</t>
+  </si>
+  <si>
+    <t>Bulkheads (16) @ Dogfish (2)</t>
+  </si>
+  <si>
+    <t>Clippers (5) @ Outsiders (3)</t>
+  </si>
+  <si>
+    <t>UPDATED: August 5, 2025</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>+55</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>+21</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-9</t>
   </si>
 </sst>
 </file>
@@ -1604,8 +1515,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B16" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1672,7 +1583,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1694,7 +1605,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1704,7 +1615,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1714,7 +1625,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
@@ -1751,13 +1662,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1767,7 +1678,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
@@ -1786,13 +1697,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" s="8">
         <v>0.5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1828,7 +1739,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1838,7 +1749,7 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -1858,7 +1769,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>31</v>
@@ -1884,13 +1795,13 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1900,7 +1811,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -1920,7 +1831,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
@@ -1950,7 +1861,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>32</v>
@@ -2004,7 +1915,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2014,7 +1925,7 @@
         <v>0.5625</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -2046,7 +1957,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>43</v>
@@ -2070,7 +1981,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
@@ -2088,7 +1999,7 @@
         <v>0.5</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
@@ -2112,7 +2023,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
@@ -2120,7 +2031,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -2133,7 +2044,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -2148,7 +2059,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -2162,7 +2073,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -2192,7 +2103,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -2206,7 +2117,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2216,7 +2127,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="21"/>
@@ -2230,7 +2141,7 @@
         <v>0.5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -2240,7 +2151,7 @@
         <v>0.5</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>45</v>
@@ -2256,13 +2167,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P24" s="15">
         <v>0.4375</v>
@@ -2310,7 +2221,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -2333,7 +2244,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -2343,7 +2254,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P27" s="11">
         <v>0.41666666666666669</v>
@@ -2367,7 +2278,7 @@
         <v>0.5</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="56"/>
@@ -2436,7 +2347,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2446,7 +2357,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -2495,7 +2406,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2551,7 +2462,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2561,7 +2472,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="17">
@@ -2578,7 +2489,7 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2595,7 +2506,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2605,13 +2516,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="Q37" s="57" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R37" s="58"/>
       <c r="S37" s="58"/>
@@ -2622,17 +2533,18 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I38" s="17">
         <v>0.5</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
+      <c r="N38" s="20"/>
       <c r="O38" s="40"/>
       <c r="Q38" s="60"/>
       <c r="R38" s="61"/>
@@ -2651,7 +2563,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P40" s="47" t="s">
         <v>53</v>
@@ -2670,7 +2582,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -2711,22 +2623,22 @@
         <v>10</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="R42" s="35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="U42" s="35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V42" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X42" s="42"/>
     </row>
@@ -2742,22 +2654,22 @@
         <v>6</v>
       </c>
       <c r="Q43" s="35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R43" s="36">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="S43" s="37">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="T43" s="37">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U43" s="38">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="V43" s="35" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="X43" s="42"/>
     </row>
@@ -2773,22 +2685,22 @@
         <v>12</v>
       </c>
       <c r="Q44" s="35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R44" s="36">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="S44" s="37">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="T44" s="37">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U44" s="35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V44" s="35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="X44" s="42"/>
     </row>
@@ -2806,22 +2718,22 @@
         <v>7</v>
       </c>
       <c r="Q45" s="35" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="R45" s="36">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="S45" s="37">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="T45" s="37">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U45" s="38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V45" s="35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="X45" s="42"/>
     </row>
@@ -2835,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="R46" s="36">
         <v>500</v>
@@ -2850,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="35" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X46" s="42"/>
     </row>
@@ -2869,22 +2781,22 @@
         <v>11</v>
       </c>
       <c r="Q47" s="35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R47" s="36">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="S47" s="37">
         <v>22</v>
       </c>
       <c r="T47" s="37">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="U47" s="37">
-        <v>-13</v>
+        <v>-26</v>
       </c>
       <c r="V47" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="X47" s="42"/>
     </row>
@@ -2902,22 +2814,22 @@
         <v>13</v>
       </c>
       <c r="Q48" s="35" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="R48" s="41">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="S48" s="37">
         <v>23</v>
       </c>
       <c r="T48" s="37">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="U48" s="37">
-        <v>-34</v>
+        <v>-42</v>
       </c>
       <c r="V48" s="35" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="X48" s="42"/>
     </row>
@@ -2931,22 +2843,22 @@
         <v>8</v>
       </c>
       <c r="Q49" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R49" s="41">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="S49" s="37">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T49" s="37">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="U49" s="37">
-        <v>-33</v>
+        <v>-47</v>
       </c>
       <c r="V49" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501EF8CD-BE4A-EC44-8FF8-1EDF9788F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2801170-DCD7-AB49-93F7-F9349A322409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="820" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>Team</t>
   </si>
@@ -266,110 +266,6 @@
   </si>
   <si>
     <t>Best seed @ #2</t>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Clippers (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Outsiders (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Clippers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Excitables @ Dogfish (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dragons @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fringe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -422,58 +318,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Excitables @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dragons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bulkheads @ Fringe (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Excitables (11) @ Riptide (2)</t>
   </si>
   <si>
@@ -584,9 +428,6 @@
     </r>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Outsiders (6) @ Dragons (5) - 8 ings</t>
   </si>
   <si>
@@ -614,9 +455,6 @@
   </si>
   <si>
     <t>Clippers (3) @ Excitables (9)</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>9</t>
@@ -663,24 +501,12 @@
     <t>Dogfish (1) @ Fringe (2) - 9 ings</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>5-5</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2-8</t>
-  </si>
-  <si>
     <t>Excitables (13) @ Fringe (0)</t>
   </si>
   <si>
@@ -693,37 +519,116 @@
     <t>Clippers (5) @ Outsiders (3)</t>
   </si>
   <si>
-    <t>UPDATED: August 5, 2025</t>
-  </si>
-  <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>+55</t>
-  </si>
-  <si>
     <t>7-4</t>
   </si>
   <si>
-    <t>+21</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
     <t>2-9</t>
+  </si>
+  <si>
+    <r>
+      <t>Bulkheads @ Fringe (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dragons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Excitables @ Bulkheads (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chefetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fringe (2) @ Clippers (3)</t>
+  </si>
+  <si>
+    <t>Bulkheads (1) @ Outsiders (7)</t>
+  </si>
+  <si>
+    <t>Excitables (8) @ Dogfish (1)</t>
+  </si>
+  <si>
+    <t>Dragons (5) @ Riptide (1)</t>
+  </si>
+  <si>
+    <t>UPDATED: August 11, 2025</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>+62</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>+27</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6-5</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1420,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1583,7 +1488,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1605,7 +1510,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1615,7 +1520,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1625,7 +1530,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
@@ -1662,13 +1567,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1678,7 +1583,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
@@ -1697,13 +1602,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I7" s="8">
         <v>0.5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1739,7 +1644,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1749,7 +1654,7 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -1769,7 +1674,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>31</v>
@@ -1795,13 +1700,13 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1811,7 +1716,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -1831,7 +1736,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
@@ -1861,7 +1766,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>32</v>
@@ -1915,7 +1820,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1925,7 +1830,7 @@
         <v>0.5625</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1957,7 +1862,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>43</v>
@@ -1981,7 +1886,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
@@ -1999,7 +1904,7 @@
         <v>0.5</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
@@ -2023,7 +1928,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
@@ -2031,7 +1936,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -2044,7 +1949,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -2059,7 +1964,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -2073,7 +1978,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -2103,7 +2008,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -2117,7 +2022,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2127,7 +2032,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="21"/>
@@ -2141,7 +2046,7 @@
         <v>0.5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -2151,7 +2056,7 @@
         <v>0.5</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>45</v>
@@ -2167,13 +2072,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I24" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P24" s="15">
         <v>0.4375</v>
@@ -2221,7 +2126,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -2244,7 +2149,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -2254,7 +2159,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="P27" s="11">
         <v>0.41666666666666669</v>
@@ -2278,7 +2183,7 @@
         <v>0.5</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="56"/>
@@ -2347,7 +2252,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2357,7 +2262,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -2406,7 +2311,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2462,7 +2367,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2472,7 +2377,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="17">
@@ -2489,7 +2394,7 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2506,7 +2411,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2516,13 +2421,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="Q37" s="57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R37" s="58"/>
       <c r="S37" s="58"/>
@@ -2533,13 +2438,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I38" s="17">
         <v>0.5</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
@@ -2563,7 +2468,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P40" s="47" t="s">
         <v>53</v>
@@ -2582,7 +2487,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -2623,22 +2528,22 @@
         <v>10</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R42" s="35" t="s">
         <v>127</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="U42" s="35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V42" s="22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X42" s="42"/>
     </row>
@@ -2654,22 +2559,22 @@
         <v>6</v>
       </c>
       <c r="Q43" s="35" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="R43" s="36">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="S43" s="37">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T43" s="37">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U43" s="38">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="V43" s="35" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X43" s="42"/>
     </row>
@@ -2688,19 +2593,19 @@
         <v>130</v>
       </c>
       <c r="R44" s="36">
-        <v>636</v>
+        <v>667</v>
       </c>
       <c r="S44" s="37">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T44" s="37">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U44" s="35" t="s">
         <v>131</v>
       </c>
       <c r="V44" s="35" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="X44" s="42"/>
     </row>
@@ -2718,22 +2623,22 @@
         <v>7</v>
       </c>
       <c r="Q45" s="35" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="R45" s="36">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="S45" s="37">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T45" s="37">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U45" s="38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V45" s="35" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="X45" s="42"/>
     </row>
@@ -2747,22 +2652,22 @@
         <v>9</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="R46" s="36">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="S46" s="37">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T46" s="37">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U46" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V46" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="X46" s="42"/>
     </row>
@@ -2781,22 +2686,22 @@
         <v>11</v>
       </c>
       <c r="Q47" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R47" s="36">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="S47" s="37">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T47" s="37">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U47" s="37">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="V47" s="35" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="X47" s="42"/>
     </row>
@@ -2814,22 +2719,22 @@
         <v>13</v>
       </c>
       <c r="Q48" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R48" s="41">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="S48" s="37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T48" s="37">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U48" s="37">
-        <v>-42</v>
+        <v>-46</v>
       </c>
       <c r="V48" s="35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="X48" s="42"/>
     </row>
@@ -2843,22 +2748,22 @@
         <v>8</v>
       </c>
       <c r="Q49" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R49" s="41">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="S49" s="37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T49" s="37">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U49" s="37">
-        <v>-47</v>
+        <v>-54</v>
       </c>
       <c r="V49" s="35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2801170-DCD7-AB49-93F7-F9349A322409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F277F0D-66FC-C648-9293-8712B85052BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="820" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
     <sheet name="2025 Schedule" sheetId="18" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 Schedule'!$P$35:$V$42</definedName>
     <definedName name="CIQWBGuid" hidden="1">"50be515a-d852-4fa0-a759-690b27d38276"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.49.2423.4439"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
   <si>
     <t>Team</t>
   </si>
@@ -211,30 +211,12 @@
     <t>Saturday, August 23 - PLAYOFFS: 1st Round</t>
   </si>
   <si>
-    <t>Sunday, August 24</t>
-  </si>
-  <si>
     <t>Saturday, August 30 - PLAYOFFS: Semis</t>
   </si>
   <si>
     <t>Sunday, August 31 - CHAMPIONSHIP GAME</t>
   </si>
   <si>
-    <t>Maintenance vs. Lifeguards</t>
-  </si>
-  <si>
-    <t>#5 @ #4</t>
-  </si>
-  <si>
-    <t>#6 @ #3</t>
-  </si>
-  <si>
-    <t>#8 @ #7</t>
-  </si>
-  <si>
-    <t>2025 Regular Seasons Standings</t>
-  </si>
-  <si>
     <t>2025 SALTAIRE SOFTBALL</t>
   </si>
   <si>
@@ -253,69 +235,10 @@
     <t>WSCSS: #1</t>
   </si>
   <si>
-    <t>WSCSS: #4</t>
-  </si>
-  <si>
     <t>WSCSS: #2</t>
   </si>
   <si>
     <t>WSCSS: #3</t>
-  </si>
-  <si>
-    <t>Worst seed @ #1</t>
-  </si>
-  <si>
-    <t>Best seed @ #2</t>
-  </si>
-  <si>
-    <r>
-      <t>Fringe @ Dragons (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dogfish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clippers @ Riptide (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Outsiders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Excitables (11) @ Riptide (2)</t>
@@ -455,9 +378,6 @@
   </si>
   <si>
     <t>Clippers (3) @ Excitables (9)</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>Dragons (2) @ Excitables (8)</t>
@@ -501,9 +421,6 @@
     <t>Dogfish (1) @ Fringe (2) - 9 ings</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -519,28 +436,46 @@
     <t>Clippers (5) @ Outsiders (3)</t>
   </si>
   <si>
-    <t>7-4</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>2-9</t>
+    <t>Fringe (2) @ Clippers (3)</t>
+  </si>
+  <si>
+    <t>Bulkheads (1) @ Outsiders (7)</t>
+  </si>
+  <si>
+    <t>Excitables (8) @ Dogfish (1)</t>
+  </si>
+  <si>
+    <t>Dragons (5) @ Riptide (1)</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>+27</t>
+  </si>
+  <si>
+    <t>Maintenance (6) vs. Lifeguards (5)</t>
+  </si>
+  <si>
+    <t>Bulkheads (14) @ Fringe (2)</t>
   </si>
   <si>
     <r>
-      <t>Bulkheads @ Fringe (</t>
+      <t>Clippers (5) @ Riptide (</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Dragons</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -554,81 +489,61 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Excitables @ Bulkheads (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chefetz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Fringe (2) @ Clippers (3)</t>
-  </si>
-  <si>
-    <t>Bulkheads (1) @ Outsiders (7)</t>
-  </si>
-  <si>
-    <t>Excitables (8) @ Dogfish (1)</t>
-  </si>
-  <si>
-    <t>Dragons (5) @ Riptide (1)</t>
-  </si>
-  <si>
-    <t>UPDATED: August 11, 2025</t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>+62</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>+27</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6-5</t>
+    <t>Fringe (6) @ Dragons (9)</t>
+  </si>
+  <si>
+    <t>Excitables (3) @ Bulkheads (10)</t>
+  </si>
+  <si>
+    <t>UPDATED: August 18, 2025</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>2025 Regular Seasons Standings - FINAL</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>+55</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>#5 Dragons @ #4 Clippers</t>
+  </si>
+  <si>
+    <t>#6 Fringe @ #3 Outsiders</t>
+  </si>
+  <si>
+    <t>Worst seed @ #1 Bulkheads</t>
+  </si>
+  <si>
+    <t>Best seed @ #2 Excitables</t>
   </si>
 </sst>
 </file>
@@ -639,7 +554,7 @@
     <numFmt numFmtId="164" formatCode="_(#,##0.0%_);\(#,##0.0%\);_(&quot;–&quot;_)_%;_(@_)_%"/>
     <numFmt numFmtId="165" formatCode="\+0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,12 +641,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -763,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -841,96 +750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -961,11 +780,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1015,9 +856,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1086,35 +924,35 @@
     <xf numFmtId="18" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1452,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="2:30" ht="47" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1488,7 +1326,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1502,7 +1340,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="39"/>
+      <c r="U3" s="38"/>
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -1510,7 +1348,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1520,7 +1358,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1530,12 +1368,12 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -1543,7 +1381,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1567,13 +1405,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1583,11 +1421,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+        <v>102</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
       <c r="W6" s="14"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="16"/>
@@ -1602,13 +1440,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I7" s="8">
         <v>0.5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1644,7 +1482,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1654,7 +1492,7 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -1674,7 +1512,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>31</v>
@@ -1690,7 +1528,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="39"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="15"/>
@@ -1700,13 +1538,13 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1716,11 +1554,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
+        <v>104</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8"/>
       <c r="X10" s="16"/>
@@ -1736,7 +1574,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
@@ -1744,14 +1582,14 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
       <c r="W11" s="8"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -1766,7 +1604,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>32</v>
@@ -1820,7 +1658,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1830,7 +1668,7 @@
         <v>0.5625</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1840,7 +1678,7 @@
         <v>0.75</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="W14" s="8"/>
       <c r="X14" s="6"/>
@@ -1862,7 +1700,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>43</v>
@@ -1886,7 +1724,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
@@ -1900,21 +1738,21 @@
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="51">
         <v>0.5</v>
       </c>
-      <c r="J17" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="J17" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
       <c r="P17" s="8">
         <v>0.5</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -1928,7 +1766,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
@@ -1936,7 +1774,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -1948,15 +1786,15 @@
       <c r="B19" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>78</v>
+      <c r="C19" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="I19" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -1964,7 +1802,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -1972,13 +1810,13 @@
       <c r="W19" s="15"/>
     </row>
     <row r="20" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="45"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="13"/>
       <c r="I20" s="12">
         <v>0.76041666666666663</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -2008,7 +1846,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -2022,7 +1860,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2032,21 +1870,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="U22" s="13"/>
-      <c r="W22" s="28"/>
+      <c r="W22" s="27"/>
     </row>
     <row r="23" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="8">
         <v>0.5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -2056,7 +1894,7 @@
         <v>0.5</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>45</v>
@@ -2072,27 +1910,27 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I24" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="P24" s="15">
         <v>0.4375</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="27"/>
+      <c r="U24" s="26"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
@@ -2109,15 +1947,15 @@
       <c r="L25" s="23"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
-      <c r="P25" s="11">
+      <c r="P25" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="Q25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
+      <c r="Q25" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
       <c r="U25" s="13"/>
       <c r="W25" s="15"/>
     </row>
@@ -2126,7 +1964,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -2135,9 +1973,7 @@
       <c r="I26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2149,7 +1985,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -2159,18 +1995,17 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="Q27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="W27" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="13"/>
+      <c r="W27" s="27"/>
     </row>
     <row r="28" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="6"/>
@@ -2179,27 +2014,27 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="I28" s="52">
+      <c r="I28" s="51">
         <v>0.5</v>
       </c>
-      <c r="J28" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="P28" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="Q28" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
+      <c r="J28" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="P28" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
       <c r="V28" s="16"/>
-      <c r="W28" s="28"/>
+      <c r="W28" s="27"/>
     </row>
     <row r="29" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
@@ -2210,18 +2045,22 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="13"/>
+      <c r="P29" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="27"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="7"/>
       <c r="W29" s="15"/>
     </row>
     <row r="30" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -2236,23 +2075,23 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
     </row>
     <row r="31" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="12">
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2262,7 +2101,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -2271,18 +2110,19 @@
         <v>0.4375</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-    </row>
-    <row r="32" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="11">
         <v>0.60416666666666663</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2295,23 +2135,21 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="P32" s="15">
+      <c r="P32" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="Q32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="8"/>
-    </row>
-    <row r="33" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q32" s="25"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2324,15 +2162,7 @@
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="6"/>
+      <c r="O33" s="29"/>
       <c r="W33" s="6"/>
     </row>
     <row r="34" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -2348,26 +2178,22 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O34" s="31"/>
-      <c r="P34" s="15">
-        <v>0.4375</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="Q34" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="58"/>
     </row>
     <row r="35" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2377,24 +2203,20 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="6"/>
-    </row>
-    <row r="36" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>97</v>
+      </c>
+      <c r="O35" s="29"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="61"/>
+    </row>
+    <row r="36" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="8">
         <v>0.5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2411,7 +2233,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2421,162 +2243,215 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="Q37" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="59"/>
+        <v>98</v>
+      </c>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="P37" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
     </row>
     <row r="38" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I38" s="17">
         <v>0.5</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="20"/>
-      <c r="O38" s="40"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="62"/>
-    </row>
-    <row r="39" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O38" s="39"/>
+      <c r="P38" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="R38" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="T38" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="V38" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="O39" s="31"/>
-    </row>
-    <row r="40" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O39" s="30"/>
+      <c r="P39" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="R39" s="35">
+        <v>750</v>
+      </c>
+      <c r="S39" s="36">
+        <v>80</v>
+      </c>
+      <c r="T39" s="36">
+        <v>43</v>
+      </c>
+      <c r="U39" s="37">
+        <v>37</v>
+      </c>
+      <c r="V39" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P40" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="X40" s="42"/>
+        <v>79</v>
+      </c>
+      <c r="P40" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="R40" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="S40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="T40" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="U40" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="V40" s="22">
+        <v>17</v>
+      </c>
+      <c r="X40" s="41"/>
     </row>
     <row r="41" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="43"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="17">
         <v>0.5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="P41" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="S41" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="T41" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="X41" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="P41" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="R41" s="35">
+        <v>667</v>
+      </c>
+      <c r="S41" s="36">
+        <v>65</v>
+      </c>
+      <c r="T41" s="36">
+        <v>38</v>
+      </c>
+      <c r="U41" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="V41" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X41" s="41"/>
     </row>
     <row r="42" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="43"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="15"/>
       <c r="C42" s="13"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="P42" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="R42" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="S42" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="T42" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="U42" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="V42" s="22">
-        <v>17</v>
-      </c>
-      <c r="X42" s="42"/>
+      <c r="P42" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="R42" s="35">
+        <v>667</v>
+      </c>
+      <c r="S42" s="36">
+        <v>80</v>
+      </c>
+      <c r="T42" s="36">
+        <v>60</v>
+      </c>
+      <c r="U42" s="37">
+        <v>20</v>
+      </c>
+      <c r="V42" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="X42" s="41"/>
     </row>
     <row r="43" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="43"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="15"/>
       <c r="C43" s="13"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="P43" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="R43" s="36">
-        <v>700</v>
-      </c>
-      <c r="S43" s="37">
-        <v>56</v>
-      </c>
-      <c r="T43" s="37">
-        <v>38</v>
-      </c>
-      <c r="U43" s="38">
-        <v>18</v>
-      </c>
-      <c r="V43" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="X43" s="42"/>
+      <c r="P43" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="R43" s="35">
+        <v>583</v>
+      </c>
+      <c r="S43" s="36">
+        <v>64</v>
+      </c>
+      <c r="T43" s="36">
+        <v>57</v>
+      </c>
+      <c r="U43" s="37">
+        <v>7</v>
+      </c>
+      <c r="V43" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="X43" s="41"/>
     </row>
     <row r="44" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="8"/>
@@ -2585,62 +2460,62 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="39"/>
-      <c r="P44" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="R44" s="36">
-        <v>667</v>
-      </c>
-      <c r="S44" s="37">
-        <v>65</v>
-      </c>
-      <c r="T44" s="37">
-        <v>38</v>
-      </c>
-      <c r="U44" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="V44" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="X44" s="42"/>
+      <c r="N44" s="38"/>
+      <c r="P44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="R44" s="35">
+        <v>250</v>
+      </c>
+      <c r="S44" s="36">
+        <v>32</v>
+      </c>
+      <c r="T44" s="36">
+        <v>74</v>
+      </c>
+      <c r="U44" s="36">
+        <v>-42</v>
+      </c>
+      <c r="V44" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="X44" s="41"/>
     </row>
     <row r="45" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="H45" s="29"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="15"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="P45" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="R45" s="36">
-        <v>636</v>
-      </c>
-      <c r="S45" s="37">
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="P45" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="R45" s="40">
+        <v>167</v>
+      </c>
+      <c r="S45" s="36">
+        <v>25</v>
+      </c>
+      <c r="T45" s="36">
         <v>75</v>
       </c>
-      <c r="T45" s="37">
-        <v>59</v>
-      </c>
-      <c r="U45" s="38">
-        <v>16</v>
-      </c>
-      <c r="V45" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="X45" s="42"/>
+      <c r="U45" s="36">
+        <v>-50</v>
+      </c>
+      <c r="V45" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="X45" s="41"/>
     </row>
     <row r="46" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D46" s="6"/>
@@ -2648,30 +2523,30 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="I46" s="8"/>
-      <c r="P46" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q46" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="R46" s="36">
-        <v>545</v>
-      </c>
-      <c r="S46" s="37">
-        <v>55</v>
-      </c>
-      <c r="T46" s="37">
-        <v>51</v>
-      </c>
-      <c r="U46" s="38">
-        <v>4</v>
-      </c>
-      <c r="V46" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="X46" s="42"/>
-    </row>
-    <row r="47" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P46" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="R46" s="40">
+        <v>167</v>
+      </c>
+      <c r="S46" s="36">
+        <v>30</v>
+      </c>
+      <c r="T46" s="36">
+        <v>84</v>
+      </c>
+      <c r="U46" s="36">
+        <v>-54</v>
+      </c>
+      <c r="V46" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="X46" s="41"/>
+    </row>
+    <row r="47" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2682,30 +2557,9 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="P47" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="R47" s="36">
-        <v>300</v>
-      </c>
-      <c r="S47" s="37">
-        <v>24</v>
-      </c>
-      <c r="T47" s="37">
-        <v>51</v>
-      </c>
-      <c r="U47" s="37">
-        <v>-27</v>
-      </c>
-      <c r="V47" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="X47" s="42"/>
-    </row>
-    <row r="48" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X47" s="41"/>
+    </row>
+    <row r="48" spans="1:24" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -2715,56 +2569,14 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="P48" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q48" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="R48" s="41">
-        <v>182</v>
-      </c>
-      <c r="S48" s="37">
-        <v>24</v>
-      </c>
-      <c r="T48" s="37">
-        <v>70</v>
-      </c>
-      <c r="U48" s="37">
-        <v>-46</v>
-      </c>
-      <c r="V48" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="X48" s="42"/>
-    </row>
-    <row r="49" spans="2:22" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X48" s="41"/>
+    </row>
+    <row r="49" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I49" s="4"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="P49" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="R49" s="41">
-        <v>167</v>
-      </c>
-      <c r="S49" s="37">
-        <v>30</v>
-      </c>
-      <c r="T49" s="37">
-        <v>84</v>
-      </c>
-      <c r="U49" s="37">
-        <v>-54</v>
-      </c>
-      <c r="V49" s="35" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="50" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I50" s="4"/>
@@ -2773,13 +2585,13 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="50"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="49"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
-      <c r="V50" s="49"/>
+      <c r="V50" s="48"/>
     </row>
     <row r="51" spans="2:22" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O51" s="3"/>
@@ -2823,7 +2635,7 @@
       <c r="B62" s="3"/>
     </row>
     <row r="76" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I76" s="28"/>
+      <c r="I76" s="27"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
@@ -2831,12 +2643,12 @@
       <c r="N76" s="13"/>
     </row>
     <row r="77" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
     </row>
     <row r="78" spans="9:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I78" s="6"/>
@@ -2880,7 +2692,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q37:T38"/>
+    <mergeCell ref="Q34:T35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F277F0D-66FC-C648-9293-8712B85052BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17ECED7-A009-DE47-B96D-DFE70C783632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42400" yWindow="3040" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
@@ -495,9 +495,6 @@
     <t>Excitables (3) @ Bulkheads (10)</t>
   </si>
   <si>
-    <t>UPDATED: August 18, 2025</t>
-  </si>
-  <si>
     <t>9-3</t>
   </si>
   <si>
@@ -534,16 +531,19 @@
     <t>11</t>
   </si>
   <si>
-    <t>#5 Dragons @ #4 Clippers</t>
-  </si>
-  <si>
-    <t>#6 Fringe @ #3 Outsiders</t>
-  </si>
-  <si>
-    <t>Worst seed @ #1 Bulkheads</t>
-  </si>
-  <si>
-    <t>Best seed @ #2 Excitables</t>
+    <t>#5 Dragons (11) @ #4 Clippers (8)</t>
+  </si>
+  <si>
+    <t>#6 Fringe (5) @ #3 Outsiders (4)</t>
+  </si>
+  <si>
+    <t>#6 Fringe @ #1 Bulkheads</t>
+  </si>
+  <si>
+    <t>#5 Dragons @ #2 Excitables</t>
+  </si>
+  <si>
+    <t>UPDATED: August 25, 2025</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:AD85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1922,7 +1922,7 @@
         <v>0.4375</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
@@ -1951,7 +1951,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
@@ -2028,7 +2028,7 @@
         <v>0.4375</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
@@ -2049,7 +2049,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="O34" s="30"/>
       <c r="Q34" s="56" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="R34" s="57"/>
       <c r="S34" s="57"/>
@@ -2249,7 +2249,7 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="P37" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q37" s="45"/>
       <c r="R37" s="45"/>
@@ -2308,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R39" s="35">
         <v>750</v>
@@ -2323,7 +2323,7 @@
         <v>37</v>
       </c>
       <c r="V39" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2337,19 +2337,19 @@
         <v>10</v>
       </c>
       <c r="Q40" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R40" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="S40" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S40" s="34" t="s">
+      <c r="T40" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="T40" s="34" t="s">
+      <c r="U40" s="34" t="s">
         <v>118</v>
-      </c>
-      <c r="U40" s="34" t="s">
-        <v>119</v>
       </c>
       <c r="V40" s="22">
         <v>17</v>
@@ -2418,7 +2418,7 @@
         <v>20</v>
       </c>
       <c r="V42" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X42" s="41"/>
     </row>
@@ -2434,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="Q43" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R43" s="35">
         <v>583</v>
@@ -2449,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="V43" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X43" s="41"/>
     </row>
@@ -2465,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R44" s="35">
         <v>250</v>
@@ -2480,7 +2480,7 @@
         <v>-42</v>
       </c>
       <c r="V44" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X44" s="41"/>
     </row>

--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17ECED7-A009-DE47-B96D-DFE70C783632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11AF50-B982-F74B-BDCF-75889400B8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42400" yWindow="3040" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>Team</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Sunday, August 31 - CHAMPIONSHIP GAME</t>
   </si>
   <si>
-    <t>2025 SALTAIRE SOFTBALL</t>
-  </si>
-  <si>
     <t>Friday, July 25</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>WSCSS: #2</t>
-  </si>
-  <si>
-    <t>WSCSS: #3</t>
   </si>
   <si>
     <t>Excitables (11) @ Riptide (2)</t>
@@ -537,13 +531,22 @@
     <t>#6 Fringe (5) @ #3 Outsiders (4)</t>
   </si>
   <si>
-    <t>#6 Fringe @ #1 Bulkheads</t>
-  </si>
-  <si>
-    <t>#5 Dragons @ #2 Excitables</t>
-  </si>
-  <si>
-    <t>UPDATED: August 25, 2025</t>
+    <t>2025 SALTAIRE SOFTBALL - FINAL</t>
+  </si>
+  <si>
+    <t>#6 Fringe (4) @ #1 Bulkheads (15)</t>
+  </si>
+  <si>
+    <t>#5 Dragons (4) @ #2 Excitables (5)</t>
+  </si>
+  <si>
+    <t>WSCSS: #3 - ADY (5) @ GREYS (9)</t>
+  </si>
+  <si>
+    <t>#2 Excitables (10) @ #1 Bulkheads (5) - 8 ings</t>
+  </si>
+  <si>
+    <t>UPDATED: September 3, 2025</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -954,6 +957,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="42" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1290,7 +1303,7 @@
   <sheetData>
     <row r="1" spans="2:30" ht="47" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1326,7 +1339,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1348,7 +1361,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1358,7 +1371,7 @@
         <v>0.75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1368,7 +1381,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R4" s="38"/>
       <c r="S4" s="38"/>
@@ -1381,7 +1394,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1397,7 +1410,7 @@
       <c r="P5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="62"/>
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -1405,13 +1418,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1421,11 +1434,12 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
+      <c r="U6" s="63"/>
       <c r="W6" s="14"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="16"/>
@@ -1440,13 +1454,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="8">
         <v>0.5</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1459,7 +1473,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
+      <c r="U7" s="64"/>
       <c r="W7" s="8"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
@@ -1482,7 +1496,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1492,11 +1506,12 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="7"/>
       <c r="W8" s="8"/>
       <c r="X8" s="15"/>
@@ -1512,7 +1527,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>31</v>
@@ -1528,7 +1543,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="38"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="15"/>
@@ -1538,13 +1553,13 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1554,11 +1569,12 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8"/>
       <c r="X10" s="16"/>
@@ -1574,7 +1590,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="13"/>
@@ -1589,7 +1605,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="43"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="U11" s="64"/>
       <c r="W11" s="8"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -1604,7 +1620,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>32</v>
@@ -1615,6 +1631,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="P12" s="6"/>
+      <c r="U12" s="63"/>
       <c r="W12" s="22"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="13"/>
@@ -1644,6 +1661,7 @@
       <c r="P13" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="U13" s="63"/>
       <c r="W13" s="6"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -1658,7 +1676,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1668,7 +1686,7 @@
         <v>0.5625</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1678,8 +1696,9 @@
         <v>0.75</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="U14" s="63"/>
       <c r="W14" s="8"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -1700,11 +1719,12 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="U15" s="63"/>
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -1724,11 +1744,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
+      <c r="U16" s="63"/>
       <c r="W16" s="15"/>
     </row>
     <row r="17" spans="2:23" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1742,7 +1763,7 @@
         <v>0.5</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
@@ -1752,7 +1773,7 @@
         <v>0.5</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -1766,7 +1787,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
@@ -1774,7 +1795,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -1787,14 +1808,14 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="I19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -1802,7 +1823,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -1816,7 +1837,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -1846,7 +1867,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -1860,7 +1881,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -1870,7 +1891,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="21"/>
@@ -1884,7 +1905,7 @@
         <v>0.5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -1894,7 +1915,7 @@
         <v>0.5</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>45</v>
@@ -1910,19 +1931,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24" s="11">
         <v>0.72916666666666663</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P24" s="15">
         <v>0.4375</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
@@ -1951,7 +1972,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
@@ -1964,7 +1985,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -1985,7 +2006,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -1995,7 +2016,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P27" s="26" t="s">
         <v>46</v>
@@ -2018,7 +2039,7 @@
         <v>0.5</v>
       </c>
       <c r="J28" s="54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
@@ -2028,7 +2049,7 @@
         <v>0.4375</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
@@ -2049,7 +2070,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
@@ -2060,7 +2081,7 @@
     </row>
     <row r="30" spans="2:23" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -2091,7 +2112,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2101,7 +2122,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -2110,7 +2131,7 @@
         <v>0.4375</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
@@ -2122,7 +2143,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2138,7 +2159,9 @@
       <c r="P32" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="Q32" s="25"/>
+      <c r="Q32" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
       <c r="T32" s="20"/>
@@ -2149,7 +2172,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2178,11 +2201,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O34" s="30"/>
       <c r="Q34" s="56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R34" s="57"/>
       <c r="S34" s="57"/>
@@ -2193,7 +2216,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2203,7 +2226,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O35" s="29"/>
       <c r="Q35" s="59"/>
@@ -2216,7 +2239,7 @@
         <v>0.5</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2233,7 +2256,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2243,13 +2266,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="P37" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q37" s="45"/>
       <c r="R37" s="45"/>
@@ -2263,13 +2286,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I38" s="17">
         <v>0.5</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
@@ -2308,7 +2331,7 @@
         <v>6</v>
       </c>
       <c r="Q39" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R39" s="35">
         <v>750</v>
@@ -2323,7 +2346,7 @@
         <v>37</v>
       </c>
       <c r="V39" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2331,25 +2354,25 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P40" s="33" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="R40" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="R40" s="34" t="s">
+      <c r="S40" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="T40" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="S40" s="34" t="s">
+      <c r="U40" s="34" t="s">
         <v>116</v>
-      </c>
-      <c r="T40" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="U40" s="34" t="s">
-        <v>118</v>
       </c>
       <c r="V40" s="22">
         <v>17</v>
@@ -2362,7 +2385,7 @@
         <v>0.5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
@@ -2372,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R41" s="35">
         <v>667</v>
@@ -2384,10 +2407,10 @@
         <v>38</v>
       </c>
       <c r="U41" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V41" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X41" s="41"/>
     </row>
@@ -2403,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="Q42" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R42" s="35">
         <v>667</v>
@@ -2418,7 +2441,7 @@
         <v>20</v>
       </c>
       <c r="V42" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X42" s="41"/>
     </row>
@@ -2434,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="Q43" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R43" s="35">
         <v>583</v>
@@ -2449,7 +2472,7 @@
         <v>7</v>
       </c>
       <c r="V43" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X43" s="41"/>
     </row>
@@ -2465,7 +2488,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R44" s="35">
         <v>250</v>
@@ -2480,7 +2503,7 @@
         <v>-42</v>
       </c>
       <c r="V44" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X44" s="41"/>
     </row>
@@ -2498,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R45" s="40">
         <v>167</v>
@@ -2513,7 +2536,7 @@
         <v>-50</v>
       </c>
       <c r="V45" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X45" s="41"/>
     </row>
@@ -2527,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R46" s="40">
         <v>167</v>
@@ -2542,7 +2565,7 @@
         <v>-54</v>
       </c>
       <c r="V46" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X46" s="41"/>
     </row>
